--- a/datatable/TestData.xlsx
+++ b/datatable/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Demo\datatable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4B5527-C879-4CDA-9402-B5488384F63D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B0519A-6123-4CD0-A157-D1690F31B966}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E0B5DE05-6070-4C43-B663-2A93A54C5514}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>ScenarioName</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t>Test002</t>
+  </si>
+  <si>
+    <t>ExecutionFlag</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>rakshana231</t>
   </si>
 </sst>
 </file>
@@ -410,47 +419,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1C06E3-C14D-42BD-98D1-2B450EBF12D4}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
